--- a/biology/Botanique/East_River_Park/East_River_Park.xlsx
+++ b/biology/Botanique/East_River_Park/East_River_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'East River Park est un jardin public situé dans le quartier de Lower East Side dans l'arrondissement de Manhattan, à New York. Il s'étend le long de l'East River de Montgomery Street à la 12e rue. L'entrée sud offre de beaux points de vue sur le Manhattan Bridge et le Brooklyn Bridge. L'amphithéâtre, bâti en 1941 a été reconstruit après les attentats du 11 septembre 2001, et est souvent utilisé pour des spectacles publics. Le parc a récemment subi d'importantes rénovations et comporte maintenant des terrains de football américain, baseball, football, basketball, handball, courts de tennis, ainsi qu'une piste d'athlétisme et des pistes cyclables. On peut aussi y pratiquer la pêche. Le parc est traversé par le Williamsburg Bridge.
